--- a/files_for_lab/anova_lab_data.xlsx
+++ b/files_for_lab/anova_lab_data.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/himanshuaggarwal/data/01-lesson_plans/07-unit_adv_stats_feature_selecftion_Trees_ensemble_methods/7.05_/lab/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agathe/Ironhack/Labs/GitHub/lab-t-tests-p-values/files_for_lab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642BCEDA-F489-CF4E-91D8-0E2205FE340A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DEE7681-59A9-5E4F-8024-1CC099840D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="2300" windowWidth="21900" windowHeight="12940" xr2:uid="{49703896-377D-AA4B-83EF-96E6D3254657}"/>
+    <workbookView xWindow="41240" yWindow="2340" windowWidth="17720" windowHeight="13080" activeTab="2" xr2:uid="{49703896-377D-AA4B-83EF-96E6D3254657}"/>
   </bookViews>
   <sheets>
     <sheet name="data_collected" sheetId="2" r:id="rId1"/>
     <sheet name="f_tables" sheetId="1" r:id="rId2"/>
+    <sheet name="data" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="20">
   <si>
     <t>source Of Variation</t>
   </si>
@@ -158,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -170,6 +171,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -492,7 +496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7DA315-ECA9-A947-8813-9D781649E28B}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13:E13"/>
     </sheetView>
   </sheetViews>
@@ -639,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{984482C8-2141-C541-A96F-877715FC3F0D}">
   <dimension ref="D6:K18"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14:I16"/>
+    <sheetView topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -733,12 +737,12 @@
       <c r="D13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
       <c r="I13" s="5"/>
       <c r="J13" s="2" t="s">
         <v>9</v>
@@ -867,4 +871,124 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D25F7B-A5E8-AC48-86B6-D71B1C215D4A}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3">
+        <v>5.43</v>
+      </c>
+      <c r="C2" s="3">
+        <v>5.71</v>
+      </c>
+      <c r="D2" s="3">
+        <v>6.22</v>
+      </c>
+      <c r="E2" s="3">
+        <v>6.01</v>
+      </c>
+      <c r="F2" s="3">
+        <v>5.59</v>
+      </c>
+      <c r="G2" s="3">
+        <f>SUM(B2:F2)</f>
+        <v>28.959999999999997</v>
+      </c>
+      <c r="H2" s="3">
+        <f>AVERAGE(B2:F2)</f>
+        <v>5.7919999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3">
+        <v>6.24</v>
+      </c>
+      <c r="C3" s="3">
+        <v>6.71</v>
+      </c>
+      <c r="D3" s="3">
+        <v>5.98</v>
+      </c>
+      <c r="E3" s="3">
+        <v>5.66</v>
+      </c>
+      <c r="F3" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G4" si="0">SUM(B3:F3)</f>
+        <v>31.189999999999998</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:H4" si="1">AVERAGE(B3:F3)</f>
+        <v>6.2379999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="C4" s="3">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D4" s="3">
+        <v>7.9</v>
+      </c>
+      <c r="E4" s="3">
+        <v>8.15</v>
+      </c>
+      <c r="F4" s="3">
+        <v>7.55</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="0"/>
+        <v>41.589999999999996</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" si="1"/>
+        <v>8.3179999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>